--- a/export/Reports/Transition_Estimates_Template.xlsx
+++ b/export/Reports/Transition_Estimates_Template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahkhalil\workspace\Semoss\export\Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksmart\workspace\Semoss\export\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8232"/>
   </bookViews>
   <sheets>
     <sheet name="Transition Cost Estimates" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
     <t>@SYSTEM@</t>
   </si>
   <si>
-    <t>This report breaks out the required transition costs to migrate @SYSTEM@ to the future-state environment and support the DHMSM EHR capability. The transition costs are broken into three categories: (1) interface modernization costs, which address the investment requried to modernize the interfaces in order to support data exchange between @SYSTEM@ and the DHMSM EHR; (2) hardware and software modernization costs required to ensure that technical support for @SYSTEM@ is available; and (3) DIACAP costs required to maintain the IA posture of @SYSTEM@.</t>
-  </si>
-  <si>
     <t>Interface Modernization</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>Inflation</t>
+  </si>
+  <si>
+    <t>This report breaks out the required transition costs to migrate @SYSTEM@ to the future-state environment and support MHS GENESIS. The transition costs are broken into three categories: (1) interface modernization costs, which address the investment requried to modernize the interfaces in order to support data exchange between @SYSTEM@ and MHS GENESIS; (2) hardware and software modernization costs required to ensure that technical support for @SYSTEM@ is available; and (3) DIACAP costs required to maintain the IA posture of @SYSTEM@.</t>
   </si>
 </sst>
 </file>
@@ -656,18 +656,56 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -686,44 +724,6 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1013,106 +1013,106 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A4" sqref="A4:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="8" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="8" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
+    <row r="4" spans="1:11" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="31" t="s">
+      <c r="B6" s="44"/>
+      <c r="C6" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="E6" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="F6" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="G6" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="H6" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+    </row>
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="46"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="50"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="36"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="51">
+      <c r="C8" s="29">
         <v>0</v>
       </c>
       <c r="D8" s="10">
@@ -1132,12 +1132,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="40"/>
       <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="52">
+        <v>5</v>
+      </c>
+      <c r="C9" s="30">
         <v>0</v>
       </c>
       <c r="D9" s="8">
@@ -1157,12 +1157,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="40"/>
       <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="52">
+        <v>6</v>
+      </c>
+      <c r="C10" s="30">
         <v>0</v>
       </c>
       <c r="D10" s="8">
@@ -1182,12 +1182,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="40"/>
       <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="52">
+        <v>7</v>
+      </c>
+      <c r="C11" s="30">
         <v>0</v>
       </c>
       <c r="D11" s="8">
@@ -1207,12 +1207,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="40"/>
       <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="52">
+        <v>8</v>
+      </c>
+      <c r="C12" s="30">
         <v>0</v>
       </c>
       <c r="D12" s="8">
@@ -1232,10 +1232,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="40"/>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="8">
         <v>0</v>
@@ -1261,10 +1261,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="46"/>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="40"/>
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="8">
         <f>SUM(C8:C12)*(Factors!B3)</f>
@@ -1287,11 +1287,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="47"/>
+    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="41"/>
       <c r="C15" s="9">
         <f>SUM(C8:C14)</f>
         <v>0</v>
@@ -1317,14 +1317,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
-        <v>12</v>
+    <row r="16" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="39" t="s">
+        <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="51">
+        <v>4</v>
+      </c>
+      <c r="C16" s="29">
         <v>0</v>
       </c>
       <c r="D16" s="10">
@@ -1344,12 +1344,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="40"/>
       <c r="B17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="52">
+        <v>5</v>
+      </c>
+      <c r="C17" s="30">
         <v>0</v>
       </c>
       <c r="D17" s="10">
@@ -1369,12 +1369,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="40"/>
       <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="52">
+        <v>6</v>
+      </c>
+      <c r="C18" s="30">
         <v>0</v>
       </c>
       <c r="D18" s="10">
@@ -1394,12 +1394,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="46"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="40"/>
       <c r="B19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="52">
+        <v>7</v>
+      </c>
+      <c r="C19" s="30">
         <v>0</v>
       </c>
       <c r="D19" s="10">
@@ -1419,12 +1419,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="40"/>
       <c r="B20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="52">
+        <v>8</v>
+      </c>
+      <c r="C20" s="30">
         <v>0</v>
       </c>
       <c r="D20" s="10">
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="40"/>
       <c r="B21" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" s="8">
         <v>0</v>
@@ -1473,10 +1473,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="40"/>
       <c r="B22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22" s="8">
         <f>SUM(C16:C20)*Factors!$B$3</f>
@@ -1491,11 +1491,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="48"/>
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="42"/>
       <c r="C23" s="11">
         <f>SUM(C16:C22)</f>
         <v>0</v>
@@ -1521,11 +1521,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="43"/>
+    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="35"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
@@ -1533,11 +1533,11 @@
       <c r="G24" s="19"/>
       <c r="H24" s="26"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="44"/>
+    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="36"/>
       <c r="C25" s="14">
         <v>0</v>
       </c>
@@ -1558,11 +1558,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="43"/>
+    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="35"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
@@ -1570,11 +1570,11 @@
       <c r="G26" s="19"/>
       <c r="H26" s="26"/>
     </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="44"/>
+    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="36"/>
       <c r="C27" s="14">
         <v>0</v>
       </c>
@@ -1595,11 +1595,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="38"/>
+    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="52"/>
       <c r="C28" s="12">
         <f>SUM(C15,C23,C25,C27)</f>
         <v>0</v>
@@ -1627,6 +1627,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
@@ -1643,10 +1647,6 @@
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="A28:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1664,36 +1664,36 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="14.88671875" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="7">
         <v>0.18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="7">
         <v>0.15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="7">
         <v>1.7999999999999999E-2</v>
